--- a/results/pro6000_l40s_h100_h200_11_2025/single-query/benchmark_report.xlsx
+++ b/results/pro6000_l40s_h100_h200_11_2025/single-query/benchmark_report.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -596,12 +596,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>149</v>
+        <v>132.14</v>
       </c>
       <c r="C10" t="n">
         <v>27.12</v>
       </c>
       <c r="D10" t="n">
+        <v>57.01024166288281</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>8xH200</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>149</v>
+      </c>
+      <c r="C11" t="n">
+        <v>27.12</v>
+      </c>
+      <c r="D11" t="n">
         <v>50.5592841163311</v>
       </c>
     </row>
